--- a/po forecast comparison/B09L9DY4L1_sales_po_comparison.xlsx
+++ b/po forecast comparison/B09L9DY4L1_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1031 +453,1570 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44914</v>
+        <v>44920</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="B3" t="n">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>44928</v>
       </c>
-      <c r="B3" t="n">
-        <v>39</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44935</v>
+        <v>44934</v>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
-      </c>
-      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44956</v>
+        <v>44941</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44963</v>
+        <v>44941</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44970</v>
+        <v>44941</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44977</v>
+        <v>44962</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44984</v>
+        <v>44969</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
-      </c>
-      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44991</v>
+        <v>44976</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
-      </c>
-      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44998</v>
+        <v>44983</v>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45005</v>
+        <v>44990</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
-      </c>
-      <c r="C12" t="n">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45012</v>
+        <v>44997</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
-      </c>
-      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45019</v>
+        <v>45004</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45026</v>
+        <v>45011</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45033</v>
+        <v>45018</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45040</v>
+        <v>45025</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45047</v>
+        <v>45032</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45054</v>
+        <v>45039</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45061</v>
+        <v>45046</v>
       </c>
       <c r="B20" t="n">
         <v>11</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45068</v>
+        <v>45053</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45075</v>
+        <v>45060</v>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
-      </c>
-      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45082</v>
+        <v>45067</v>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
-      </c>
-      <c r="C23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45110</v>
+        <v>45074</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45159</v>
+        <v>45081</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45166</v>
+        <v>45088</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45173</v>
+        <v>45116</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
-      </c>
-      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45180</v>
+        <v>45165</v>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
-      </c>
-      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45187</v>
+        <v>45172</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
-      </c>
-      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45194</v>
+        <v>45179</v>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
-      </c>
-      <c r="C30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45201</v>
+        <v>45186</v>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
-      </c>
-      <c r="C31" t="n">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45208</v>
+        <v>45193</v>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
-      </c>
-      <c r="C32" t="n">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45215</v>
+        <v>45200</v>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
-      </c>
-      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45222</v>
+        <v>45207</v>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
-      </c>
-      <c r="C34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45229</v>
+        <v>45214</v>
       </c>
       <c r="B35" t="n">
-        <v>36</v>
-      </c>
-      <c r="C35" t="n">
+        <v>17</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45236</v>
+        <v>45221</v>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
-      </c>
-      <c r="C36" t="n">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45243</v>
+        <v>45228</v>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
-      </c>
-      <c r="C37" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45250</v>
+        <v>45235</v>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
-      </c>
-      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45257</v>
+        <v>45242</v>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
-      </c>
-      <c r="C39" t="n">
+        <v>33</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45264</v>
+        <v>45249</v>
       </c>
       <c r="B40" t="n">
-        <v>20</v>
-      </c>
-      <c r="C40" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45271</v>
+        <v>45256</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
-      </c>
-      <c r="C41" t="n">
+        <v>25</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45285</v>
+        <v>45263</v>
       </c>
       <c r="B42" t="n">
-        <v>23</v>
-      </c>
-      <c r="C42" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45292</v>
+        <v>45270</v>
       </c>
       <c r="B43" t="n">
-        <v>77</v>
-      </c>
-      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45299</v>
+        <v>45277</v>
       </c>
       <c r="B44" t="n">
-        <v>59</v>
-      </c>
-      <c r="C44" t="n">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45306</v>
+        <v>45291</v>
       </c>
       <c r="B45" t="n">
-        <v>93</v>
-      </c>
-      <c r="C45" t="n">
-        <v>198</v>
+        <v>23</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45313</v>
+        <v>45298</v>
       </c>
       <c r="B46" t="n">
-        <v>52</v>
-      </c>
-      <c r="C46" t="n">
-        <v>198</v>
+        <v>77</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45320</v>
+        <v>45305</v>
       </c>
       <c r="B47" t="n">
-        <v>73</v>
-      </c>
-      <c r="C47" t="n">
-        <v>180</v>
+        <v>59</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45327</v>
+        <v>45312</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
-      </c>
-      <c r="C48" t="n">
-        <v>270</v>
+        <v>93</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45334</v>
+        <v>45319</v>
       </c>
       <c r="B49" t="n">
-        <v>73</v>
-      </c>
-      <c r="C49" t="n">
+        <v>52</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45341</v>
+        <v>45326</v>
       </c>
       <c r="B50" t="n">
-        <v>52</v>
-      </c>
-      <c r="C50" t="n">
+        <v>73</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45348</v>
+        <v>45333</v>
       </c>
       <c r="B51" t="n">
-        <v>18</v>
-      </c>
-      <c r="C51" t="n">
+        <v>40</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45355</v>
+        <v>45340</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
-      </c>
-      <c r="C52" t="n">
-        <v>168</v>
+        <v>73</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45362</v>
+        <v>45347</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45369</v>
+        <v>45354</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
+        <v>18</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45376</v>
+        <v>45361</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45383</v>
+        <v>45368</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45390</v>
+        <v>45375</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45397</v>
+        <v>45382</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
-      </c>
-      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45404</v>
+        <v>45389</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
-      </c>
-      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45411</v>
+        <v>45396</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
-      </c>
-      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45418</v>
+        <v>45403</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
-      </c>
-      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45425</v>
+        <v>45410</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45432</v>
+        <v>45417</v>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
-      </c>
-      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45439</v>
+        <v>45417</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45446</v>
+        <v>45424</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45453</v>
+        <v>45431</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45460</v>
+        <v>45438</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45467</v>
+        <v>45445</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45474</v>
+        <v>45452</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
-      </c>
-      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45481</v>
+        <v>45459</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45488</v>
+        <v>45466</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45495</v>
+        <v>45473</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45502</v>
+        <v>45480</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45509</v>
+        <v>45487</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45516</v>
+        <v>45494</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45523</v>
+        <v>45501</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45530</v>
+        <v>45508</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45537</v>
+        <v>45515</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45544</v>
+        <v>45522</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45551</v>
+        <v>45529</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45558</v>
+        <v>45536</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45565</v>
+        <v>45543</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45572</v>
+        <v>45550</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45579</v>
+        <v>45557</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45586</v>
+        <v>45564</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45593</v>
+        <v>45571</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45600</v>
+        <v>45578</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45607</v>
+        <v>45585</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45614</v>
+        <v>45592</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45621</v>
+        <v>45599</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45628</v>
+        <v>45606</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45635</v>
+        <v>45613</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45642</v>
+        <v>45620</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B3" t="n">
+        <v>198</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B4" t="n">
+        <v>198</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-9.090909090909093</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B6" t="n">
+        <v>270</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B7" t="n">
+        <v>168</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-37.77777777777778</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-53.57142857142857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B2" t="n">
+        <v>158.5714285714286</v>
+      </c>
+      <c r="C2" t="n">
+        <v>270</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B09L9DY4L1_sales_po_comparison.xlsx
+++ b/po forecast comparison/B09L9DY4L1_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1370 +453,1030 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44920</v>
+        <v>44920.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44914</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44934</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44934</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44941</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44941</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44941</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44962</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44969</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44976</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44983</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44990</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44997</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45004</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45011</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>45005</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45018</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45025</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="D17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45032</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45039</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45046</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>11</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45053</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45060</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45067</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45074</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45081</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45088</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45116</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45165</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C28" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45172</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C29" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45179</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C30" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45186</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45193</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C32" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45200</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45207</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C34" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45214</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>17</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C35" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45221</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>19</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C36" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45228</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D37" t="n">
+        <v>11</v>
+      </c>
+      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45235</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45242</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>33</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45249</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D40" t="n">
+        <v>20</v>
+      </c>
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45256</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>25</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45263</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D42" t="n">
+        <v>23</v>
+      </c>
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45270</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D43" t="n">
+        <v>77</v>
+      </c>
+      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45277</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45291</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>23</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C45" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45298</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>77</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C46" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45305</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>59</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="C47" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45312</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>93</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C48" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45319</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>52</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D49" t="n">
+        <v>73</v>
+      </c>
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45326</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>73</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D50" t="n">
+        <v>52</v>
+      </c>
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45333</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D51" t="n">
+        <v>18</v>
+      </c>
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45340</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>73</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C52" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45347</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45354</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>18</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45361</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45368</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45375</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45382</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45389</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45396</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45403</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45410</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45417</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45417</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45424</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45431</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45438</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45445</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45452</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45459</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45466</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45473</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="C72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45480</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45487</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45494</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="C75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45501</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45508</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D77" t="n">
+      <c r="C77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45515</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="C78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45522</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="C79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45529</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45536</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="C81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45543</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="C82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45550</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D83" t="n">
+      <c r="C83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45557</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45564</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45571</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="C86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45578</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D87" t="n">
+      <c r="C87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45585</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45592</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="C89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45599</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45606</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45613</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45620</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45627</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>45634</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>45641</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D98" t="n">
+      <c r="C94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1831,7 +1491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1858,10 +1518,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1869,67 +1529,342 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>180</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.090909090909093</v>
+        <v>328.5714285714286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>-96.66666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-37.77777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>36</v>
+      </c>
+      <c r="C15" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>78</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C19" t="n">
+        <v>333.3333333333333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-76.92307692307692</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>42</v>
+      </c>
+      <c r="C22" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>42</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-57.14285714285714</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>162</v>
+      </c>
+      <c r="C25" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>144</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-11.11111111111112</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>18</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>198</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>198</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>180</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-9.090909090909093</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>270</v>
+      </c>
+      <c r="C31" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>168</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-37.77777777777778</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>78</v>
+      </c>
+      <c r="C33" t="n">
         <v>-53.57142857142857</v>
       </c>
     </row>
@@ -1976,16 +1911,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1110</v>
+        <v>2076</v>
       </c>
       <c r="B2" t="n">
-        <v>158.5714285714286</v>
+        <v>64.875</v>
       </c>
       <c r="C2" t="n">
         <v>270</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2016,7 +1951,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>186</v>
+        <v>142.5725806451613</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B09L9DY4L1_sales_po_comparison.xlsx
+++ b/po forecast comparison/B09L9DY4L1_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1195,6 +1195,14 @@
       </c>
       <c r="B94" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1208,7 +1216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG118"/>
+  <dimension ref="A1:AG111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,7 +1628,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>642CXCMC</t>
+          <t>16CAM8NS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1688,7 +1696,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T4" s="2" t="n">
@@ -1721,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="2" t="n">
-        <v>44965</v>
+        <v>44978</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -1854,7 +1862,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16CAM8NS</t>
+          <t>642CXCMC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1922,7 +1930,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T6" s="2" t="n">
@@ -1955,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
-        <v>44978</v>
+        <v>44965</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -2205,7 +2213,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5I9ZRHZV</t>
+          <t>7Y6ZLXLI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2254,16 +2262,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N9" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -2273,14 +2281,14 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T9" s="2" t="n">
-        <v>44965</v>
+        <v>45009</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>44972</v>
+        <v>45013</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -2294,13 +2302,13 @@
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>8280</v>
+        <v>9660</v>
       </c>
       <c r="Z9" t="n">
-        <v>8280</v>
+        <v>9660</v>
       </c>
       <c r="AA9" t="n">
-        <v>8280</v>
+        <v>9660</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -2322,7 +2330,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7UC1XMLE</t>
+          <t>7W6SJQGT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2371,16 +2379,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -2390,7 +2398,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>SCK4</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T10" s="2" t="n">
@@ -2411,13 +2419,13 @@
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>2760</v>
+        <v>9660</v>
       </c>
       <c r="Z10" t="n">
-        <v>2760</v>
+        <v>9660</v>
       </c>
       <c r="AA10" t="n">
-        <v>2990</v>
+        <v>9660</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -2439,7 +2447,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1BZWCQBV</t>
+          <t>7UC1XMLE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2488,16 +2496,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N11" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -2507,14 +2515,14 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>SCK4</t>
         </is>
       </c>
       <c r="T11" s="2" t="n">
-        <v>44965</v>
+        <v>45041</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>44972</v>
+        <v>45043</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -2528,13 +2536,13 @@
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="Z11" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="AA11" t="n">
-        <v>4140</v>
+        <v>2990</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -2556,7 +2564,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7Y6ZLXLI</t>
+          <t>5I9ZRHZV</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2605,16 +2613,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N12" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -2624,14 +2632,14 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T12" s="2" t="n">
-        <v>45009</v>
+        <v>44965</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>45013</v>
+        <v>44972</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -2645,13 +2653,13 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>9660</v>
+        <v>8280</v>
       </c>
       <c r="Z12" t="n">
-        <v>9660</v>
+        <v>8280</v>
       </c>
       <c r="AA12" t="n">
-        <v>9660</v>
+        <v>8280</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -2673,7 +2681,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7W6SJQGT</t>
+          <t>1BZWCQBV</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2722,16 +2730,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N13" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -2741,14 +2749,14 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T13" s="2" t="n">
-        <v>45041</v>
+        <v>44965</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>45043</v>
+        <v>44972</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -2762,13 +2770,13 @@
         </is>
       </c>
       <c r="Y13" t="n">
-        <v>9660</v>
+        <v>4140</v>
       </c>
       <c r="Z13" t="n">
-        <v>9660</v>
+        <v>4140</v>
       </c>
       <c r="AA13" t="n">
-        <v>9660</v>
+        <v>4140</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -4662,7 +4670,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1P2SI6JH</t>
+          <t>2BHF3YFN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4711,16 +4719,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -4730,7 +4738,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T30" s="2" t="n">
@@ -4751,13 +4759,13 @@
         </is>
       </c>
       <c r="Y30" t="n">
-        <v>1380</v>
+        <v>4140</v>
       </c>
       <c r="Z30" t="n">
-        <v>1380</v>
+        <v>4140</v>
       </c>
       <c r="AA30" t="n">
-        <v>1380</v>
+        <v>4140</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
@@ -4779,7 +4787,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2BHF3YFN</t>
+          <t>1P2SI6JH</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4828,16 +4836,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N31" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -4847,7 +4855,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T31" s="2" t="n">
@@ -4868,13 +4876,13 @@
         </is>
       </c>
       <c r="Y31" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="Z31" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="AA31" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -5247,7 +5255,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3CE6QAIP</t>
+          <t>6OLZ6VJW</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5296,16 +5304,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N35" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -5315,7 +5323,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>RDG1</t>
         </is>
       </c>
       <c r="T35" s="2" t="n">
@@ -5336,19 +5344,19 @@
         </is>
       </c>
       <c r="Y35" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="Z35" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="AA35" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
       </c>
       <c r="AC35" s="2" t="n">
-        <v>45195</v>
+        <v>45209</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
@@ -5364,7 +5372,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6OLZ6VJW</t>
+          <t>2BLYQLAL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5413,16 +5421,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N36" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -5432,7 +5440,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>RDG1</t>
+          <t>PHX6</t>
         </is>
       </c>
       <c r="T36" s="2" t="n">
@@ -5453,19 +5461,19 @@
         </is>
       </c>
       <c r="Y36" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="Z36" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="AA36" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
       </c>
       <c r="AC36" s="2" t="n">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -5481,7 +5489,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3DGXLQ6Y</t>
+          <t>6BNNY4JV</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5530,26 +5538,26 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N37" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q37" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T37" s="2" t="n">
@@ -5570,16 +5578,16 @@
         </is>
       </c>
       <c r="Y37" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="Z37" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AA37" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AB37" t="n">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="2" t="n">
         <v>45195</v>
@@ -5598,7 +5606,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6BNNY4JV</t>
+          <t>3CE6QAIP</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5647,16 +5655,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -5666,7 +5674,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T38" s="2" t="n">
@@ -5687,13 +5695,13 @@
         </is>
       </c>
       <c r="Y38" t="n">
-        <v>1380</v>
+        <v>6900</v>
       </c>
       <c r="Z38" t="n">
-        <v>1380</v>
+        <v>6900</v>
       </c>
       <c r="AA38" t="n">
-        <v>1380</v>
+        <v>6900</v>
       </c>
       <c r="AB38" t="n">
         <v>0</v>
@@ -5715,7 +5723,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2BLYQLAL</t>
+          <t>3DGXLQ6Y</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5764,26 +5772,26 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N39" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>PHX6</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T39" s="2" t="n">
@@ -5804,19 +5812,19 @@
         </is>
       </c>
       <c r="Y39" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="Z39" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AA39" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>45204</v>
+        <v>45195</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -5832,7 +5840,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7T44CM1A</t>
+          <t>5I9VZ4OC</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5900,7 +5908,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>AFW1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T40" s="2" t="n">
@@ -5933,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>45219</v>
+        <v>45209</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
@@ -6066,7 +6074,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5I9VZ4OC</t>
+          <t>7T44CM1A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6134,7 +6142,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>AFW1</t>
         </is>
       </c>
       <c r="T42" s="2" t="n">
@@ -6167,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>45209</v>
+        <v>45219</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
@@ -6300,7 +6308,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3W813A6V</t>
+          <t>15JED8RU</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6349,26 +6357,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N44" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P44" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>MDW4</t>
         </is>
       </c>
       <c r="T44" s="2" t="n">
@@ -6389,19 +6397,19 @@
         </is>
       </c>
       <c r="Y44" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="Z44" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AA44" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>45223</v>
+        <v>45239</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
@@ -6534,7 +6542,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1NQ89JVL</t>
+          <t>3W813A6V</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6602,7 +6610,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>XPH3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T46" s="2" t="n">
@@ -6651,7 +6659,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1HV6BFUP</t>
+          <t>1NQ89JVL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6719,7 +6727,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>HEA2</t>
+          <t>XPH3</t>
         </is>
       </c>
       <c r="T47" s="2" t="n">
@@ -6752,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -6768,7 +6776,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>15JED8RU</t>
+          <t>1HV6BFUP</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6817,26 +6825,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N48" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O48" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q48" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>MDW4</t>
+          <t>HEA2</t>
         </is>
       </c>
       <c r="T48" s="2" t="n">
@@ -6857,19 +6865,19 @@
         </is>
       </c>
       <c r="Y48" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="Z48" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AA48" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AB48" t="n">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>45239</v>
+        <v>45222</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
@@ -7353,7 +7361,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>13JZ5TXN</t>
+          <t>84DZ5GJY</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7411,7 +7419,7 @@
         <v>24</v>
       </c>
       <c r="P53" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -7421,7 +7429,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T53" s="2" t="n">
@@ -7448,7 +7456,7 @@
         <v>5520</v>
       </c>
       <c r="AA53" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="AB53" t="n">
         <v>0</v>
@@ -7704,7 +7712,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>84DZ5GJY</t>
+          <t>13JZ5TXN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7762,7 +7770,7 @@
         <v>24</v>
       </c>
       <c r="P56" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -7772,7 +7780,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T56" s="2" t="n">
@@ -7799,7 +7807,7 @@
         <v>5520</v>
       </c>
       <c r="AA56" t="n">
-        <v>5520</v>
+        <v>6900</v>
       </c>
       <c r="AB56" t="n">
         <v>0</v>
@@ -8640,7 +8648,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>36FL4O1V</t>
+          <t>67BDK8FW</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8689,16 +8697,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N64" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O64" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P64" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -8708,7 +8716,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T64" s="2" t="n">
@@ -8729,19 +8737,19 @@
         </is>
       </c>
       <c r="Y64" t="n">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="Z64" t="n">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="AA64" t="n">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="AB64" t="n">
         <v>0</v>
       </c>
       <c r="AC64" s="2" t="n">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
@@ -8757,7 +8765,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>67BDK8FW</t>
+          <t>36FL4O1V</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8806,16 +8814,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N65" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="O65" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P65" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -8825,7 +8833,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T65" s="2" t="n">
@@ -8846,19 +8854,19 @@
         </is>
       </c>
       <c r="Y65" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="Z65" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="AA65" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="AB65" t="n">
         <v>0</v>
       </c>
       <c r="AC65" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="AD65" t="inlineStr">
         <is>
@@ -8874,7 +8882,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>67BDK8FW</t>
+          <t>2DUBU8WB</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8923,26 +8931,26 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N66" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="O66" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P66" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T66" s="2" t="n">
@@ -8963,19 +8971,19 @@
         </is>
       </c>
       <c r="Y66" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="Z66" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="AA66" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="AC66" s="2" t="n">
-        <v>45309</v>
+        <v>45311</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -8991,7 +8999,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>36FL4O1V</t>
+          <t>26GAFSHT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9052,14 +9060,14 @@
         <v>12</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T67" s="2" t="n">
@@ -9089,10 +9097,10 @@
         <v>2760</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="AC67" s="2" t="n">
-        <v>45310</v>
+        <v>45312</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -9108,7 +9116,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2DUBU8WB</t>
+          <t>26GAFSHT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9169,14 +9177,14 @@
         <v>12</v>
       </c>
       <c r="Q68" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T68" s="2" t="n">
@@ -9206,10 +9214,10 @@
         <v>2760</v>
       </c>
       <c r="AB68" t="n">
-        <v>1150</v>
+        <v>2760</v>
       </c>
       <c r="AC68" s="2" t="n">
-        <v>45311</v>
+        <v>45312</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -9225,7 +9233,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2CM4IOYS</t>
+          <t>36FL4O1V</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9274,16 +9282,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N69" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O69" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P69" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -9293,7 +9301,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>GYR2</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T69" s="2" t="n">
@@ -9314,19 +9322,19 @@
         </is>
       </c>
       <c r="Y69" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="Z69" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AA69" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AB69" t="n">
         <v>0</v>
       </c>
       <c r="AC69" s="2" t="n">
-        <v>45313</v>
+        <v>45310</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -9459,7 +9467,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>26GAFSHT</t>
+          <t>2CM4IOYS</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9508,26 +9516,26 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N71" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O71" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P71" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q71" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR2</t>
         </is>
       </c>
       <c r="T71" s="2" t="n">
@@ -9548,19 +9556,19 @@
         </is>
       </c>
       <c r="Y71" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="Z71" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AA71" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AB71" t="n">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="2" t="n">
-        <v>45312</v>
+        <v>45313</v>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
@@ -9576,7 +9584,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>67BDK8FW</t>
+          <t>2DUBU8WB</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -9625,26 +9633,26 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N72" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="O72" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P72" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T72" s="2" t="n">
@@ -9665,19 +9673,19 @@
         </is>
       </c>
       <c r="Y72" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="Z72" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="AA72" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="AB72" t="n">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="AC72" s="2" t="n">
-        <v>45309</v>
+        <v>45311</v>
       </c>
       <c r="AD72" t="inlineStr">
         <is>
@@ -9693,7 +9701,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2CM4IOYS</t>
+          <t>36FL4O1V</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -9742,16 +9750,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N73" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O73" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P73" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -9761,7 +9769,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>GYR2</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T73" s="2" t="n">
@@ -9782,19 +9790,19 @@
         </is>
       </c>
       <c r="Y73" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="Z73" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AA73" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AB73" t="n">
         <v>0</v>
       </c>
       <c r="AC73" s="2" t="n">
-        <v>45313</v>
+        <v>45310</v>
       </c>
       <c r="AD73" t="inlineStr">
         <is>
@@ -9810,7 +9818,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>36FL4O1V</t>
+          <t>67BDK8FW</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -9859,16 +9867,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N74" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O74" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P74" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -9878,7 +9886,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T74" s="2" t="n">
@@ -9899,19 +9907,19 @@
         </is>
       </c>
       <c r="Y74" t="n">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="Z74" t="n">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="AA74" t="n">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="AB74" t="n">
         <v>0</v>
       </c>
       <c r="AC74" s="2" t="n">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AD74" t="inlineStr">
         <is>
@@ -9927,7 +9935,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2DUBU8WB</t>
+          <t>67BDK8FW</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -9976,26 +9984,26 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N75" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O75" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P75" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T75" s="2" t="n">
@@ -10016,19 +10024,19 @@
         </is>
       </c>
       <c r="Y75" t="n">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="Z75" t="n">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="AA75" t="n">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="AB75" t="n">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="AC75" s="2" t="n">
-        <v>45311</v>
+        <v>45309</v>
       </c>
       <c r="AD75" t="inlineStr">
         <is>
@@ -10278,7 +10286,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>26GAFSHT</t>
+          <t>2CM4IOYS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10327,26 +10335,26 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N78" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O78" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P78" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q78" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR2</t>
         </is>
       </c>
       <c r="T78" s="2" t="n">
@@ -10367,19 +10375,19 @@
         </is>
       </c>
       <c r="Y78" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="Z78" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AA78" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AB78" t="n">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="AC78" s="2" t="n">
-        <v>45312</v>
+        <v>45313</v>
       </c>
       <c r="AD78" t="inlineStr">
         <is>
@@ -10395,7 +10403,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4KERYATJ</t>
+          <t>7RHOYEUJ</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -10463,7 +10471,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T79" s="2" t="n">
@@ -10496,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="2" t="n">
-        <v>45319</v>
+        <v>45317</v>
       </c>
       <c r="AD79" t="inlineStr">
         <is>
@@ -10512,7 +10520,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6B28P6IW</t>
+          <t>7ATUJF5E</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -10561,16 +10569,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N80" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O80" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P80" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -10580,7 +10588,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>GYR2</t>
         </is>
       </c>
       <c r="T80" s="2" t="n">
@@ -10601,19 +10609,19 @@
         </is>
       </c>
       <c r="Y80" t="n">
-        <v>5520</v>
+        <v>6900</v>
       </c>
       <c r="Z80" t="n">
-        <v>5520</v>
+        <v>6900</v>
       </c>
       <c r="AA80" t="n">
-        <v>5520</v>
+        <v>6900</v>
       </c>
       <c r="AB80" t="n">
         <v>0</v>
       </c>
       <c r="AC80" s="2" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="AD80" t="inlineStr">
         <is>
@@ -10629,7 +10637,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7RHOYEUJ</t>
+          <t>6B28P6IW</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -10678,16 +10686,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N81" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O81" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="P81" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -10697,7 +10705,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T81" s="2" t="n">
@@ -10718,19 +10726,19 @@
         </is>
       </c>
       <c r="Y81" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="Z81" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="AA81" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="AB81" t="n">
         <v>0</v>
       </c>
       <c r="AC81" s="2" t="n">
-        <v>45317</v>
+        <v>45318</v>
       </c>
       <c r="AD81" t="inlineStr">
         <is>
@@ -10746,7 +10754,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>4KERYATJ</t>
+          <t>7RHOYEUJ</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -10814,7 +10822,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T82" s="2" t="n">
@@ -10847,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="2" t="n">
-        <v>45319</v>
+        <v>45317</v>
       </c>
       <c r="AD82" t="inlineStr">
         <is>
@@ -10863,7 +10871,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7ATUJF5E</t>
+          <t>6B28P6IW</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -10912,16 +10920,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N83" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O83" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P83" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -10931,7 +10939,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>GYR2</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T83" s="2" t="n">
@@ -10952,19 +10960,19 @@
         </is>
       </c>
       <c r="Y83" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="Z83" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="AA83" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="AB83" t="n">
         <v>0</v>
       </c>
       <c r="AC83" s="2" t="n">
-        <v>45320</v>
+        <v>45318</v>
       </c>
       <c r="AD83" t="inlineStr">
         <is>
@@ -10980,7 +10988,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7ATUJF5E</t>
+          <t>4KERYATJ</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -11029,16 +11037,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N84" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="O84" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P84" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -11048,7 +11056,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>GYR2</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T84" s="2" t="n">
@@ -11069,19 +11077,19 @@
         </is>
       </c>
       <c r="Y84" t="n">
-        <v>6900</v>
+        <v>1380</v>
       </c>
       <c r="Z84" t="n">
-        <v>6900</v>
+        <v>1380</v>
       </c>
       <c r="AA84" t="n">
-        <v>6900</v>
+        <v>1380</v>
       </c>
       <c r="AB84" t="n">
         <v>0</v>
       </c>
       <c r="AC84" s="2" t="n">
-        <v>45320</v>
+        <v>45319</v>
       </c>
       <c r="AD84" t="inlineStr">
         <is>
@@ -11097,7 +11105,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7RHOYEUJ</t>
+          <t>4KERYATJ</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -11165,7 +11173,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T85" s="2" t="n">
@@ -11198,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="2" t="n">
-        <v>45317</v>
+        <v>45319</v>
       </c>
       <c r="AD85" t="inlineStr">
         <is>
@@ -11214,7 +11222,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6B28P6IW</t>
+          <t>7ATUJF5E</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -11263,16 +11271,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N86" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O86" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P86" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -11282,7 +11290,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>GYR2</t>
         </is>
       </c>
       <c r="T86" s="2" t="n">
@@ -11303,19 +11311,19 @@
         </is>
       </c>
       <c r="Y86" t="n">
-        <v>5520</v>
+        <v>6900</v>
       </c>
       <c r="Z86" t="n">
-        <v>5520</v>
+        <v>6900</v>
       </c>
       <c r="AA86" t="n">
-        <v>5520</v>
+        <v>6900</v>
       </c>
       <c r="AB86" t="n">
         <v>0</v>
       </c>
       <c r="AC86" s="2" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="AD86" t="inlineStr">
         <is>
@@ -11331,7 +11339,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4KERYATJ</t>
+          <t>7RHOYEUJ</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -11399,7 +11407,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T87" s="2" t="n">
@@ -11432,7 +11440,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="2" t="n">
-        <v>45319</v>
+        <v>45317</v>
       </c>
       <c r="AD87" t="inlineStr">
         <is>
@@ -11565,7 +11573,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7RHOYEUJ</t>
+          <t>4KERYATJ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -11633,7 +11641,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T89" s="2" t="n">
@@ -11666,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="2" t="n">
-        <v>45317</v>
+        <v>45319</v>
       </c>
       <c r="AD89" t="inlineStr">
         <is>
@@ -11799,7 +11807,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>29ITOQOB</t>
+          <t>2IRMPAYY</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -11848,26 +11856,26 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N91" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="O91" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="P91" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR2</t>
         </is>
       </c>
       <c r="T91" s="2" t="n">
@@ -11888,19 +11896,19 @@
         </is>
       </c>
       <c r="Y91" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="Z91" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="AA91" t="n">
-        <v>5520</v>
+        <v>1150</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AC91" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="AD91" t="inlineStr">
         <is>
@@ -11916,7 +11924,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2IRMPAYY</t>
+          <t>29ITOQOB</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -11965,26 +11973,26 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N92" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O92" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="P92" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>GYR2</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T92" s="2" t="n">
@@ -12005,19 +12013,19 @@
         </is>
       </c>
       <c r="Y92" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="Z92" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="AA92" t="n">
-        <v>1150</v>
+        <v>5520</v>
       </c>
       <c r="AB92" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AC92" s="2" t="n">
-        <v>45326</v>
+        <v>45324</v>
       </c>
       <c r="AD92" t="inlineStr">
         <is>
@@ -12150,7 +12158,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2WNACFCI</t>
+          <t>29ITOQOB</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -12199,16 +12207,16 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N94" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O94" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="P94" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -12218,7 +12226,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T94" s="2" t="n">
@@ -12239,19 +12247,19 @@
         </is>
       </c>
       <c r="Y94" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="Z94" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="AA94" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="AB94" t="n">
         <v>0</v>
       </c>
       <c r="AC94" s="2" t="n">
-        <v>45325</v>
+        <v>45324</v>
       </c>
       <c r="AD94" t="inlineStr">
         <is>
@@ -12267,7 +12275,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6HMZ82SU</t>
+          <t>2WNACFCI</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -12316,16 +12324,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N95" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="O95" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="P95" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -12335,7 +12343,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T95" s="2" t="n">
@@ -12356,19 +12364,19 @@
         </is>
       </c>
       <c r="Y95" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="Z95" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="AA95" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="AB95" t="n">
         <v>0</v>
       </c>
       <c r="AC95" s="2" t="n">
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="AD95" t="inlineStr">
         <is>
@@ -12384,7 +12392,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6HMZ82SU</t>
+          <t>2WNACFCI</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -12433,16 +12441,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N96" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="O96" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="P96" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -12452,7 +12460,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T96" s="2" t="n">
@@ -12473,19 +12481,19 @@
         </is>
       </c>
       <c r="Y96" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="Z96" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="AA96" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="AB96" t="n">
         <v>0</v>
       </c>
       <c r="AC96" s="2" t="n">
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="AD96" t="inlineStr">
         <is>
@@ -12501,7 +12509,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>29ITOQOB</t>
+          <t>2IRMPAYY</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -12550,26 +12558,26 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N97" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="O97" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="P97" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR2</t>
         </is>
       </c>
       <c r="T97" s="2" t="n">
@@ -12590,19 +12598,19 @@
         </is>
       </c>
       <c r="Y97" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="Z97" t="n">
-        <v>5520</v>
+        <v>1380</v>
       </c>
       <c r="AA97" t="n">
-        <v>5520</v>
+        <v>1150</v>
       </c>
       <c r="AB97" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AC97" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="AD97" t="inlineStr">
         <is>
@@ -12618,7 +12626,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2IRMPAYY</t>
+          <t>6HMZ82SU</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -12667,26 +12675,26 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N98" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O98" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="P98" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>GYR2</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T98" s="2" t="n">
@@ -12707,19 +12715,19 @@
         </is>
       </c>
       <c r="Y98" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="Z98" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="AA98" t="n">
-        <v>1150</v>
+        <v>5520</v>
       </c>
       <c r="AB98" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AC98" s="2" t="n">
-        <v>45326</v>
+        <v>45322</v>
       </c>
       <c r="AD98" t="inlineStr">
         <is>
@@ -12852,7 +12860,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2WNACFCI</t>
+          <t>2IRMPAYY</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -12910,17 +12918,17 @@
         <v>6</v>
       </c>
       <c r="P100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>GYR2</t>
         </is>
       </c>
       <c r="T100" s="2" t="n">
@@ -12947,13 +12955,13 @@
         <v>1380</v>
       </c>
       <c r="AA100" t="n">
-        <v>1380</v>
+        <v>1150</v>
       </c>
       <c r="AB100" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AC100" s="2" t="n">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="AD100" t="inlineStr">
         <is>
@@ -12969,7 +12977,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2IRMPAYY</t>
+          <t>29ITOQOB</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -13018,26 +13026,26 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N101" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O101" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="P101" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>GYR2</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T101" s="2" t="n">
@@ -13058,19 +13066,19 @@
         </is>
       </c>
       <c r="Y101" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="Z101" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="AA101" t="n">
-        <v>1150</v>
+        <v>5520</v>
       </c>
       <c r="AB101" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AC101" s="2" t="n">
-        <v>45326</v>
+        <v>45324</v>
       </c>
       <c r="AD101" t="inlineStr">
         <is>
@@ -13086,7 +13094,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>29ITOQOB</t>
+          <t>6HMZ82SU</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -13154,7 +13162,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T102" s="2" t="n">
@@ -13187,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="AC102" s="2" t="n">
-        <v>45324</v>
+        <v>45322</v>
       </c>
       <c r="AD102" t="inlineStr">
         <is>
@@ -13203,7 +13211,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>5TSU6SSX</t>
+          <t>5GJQT9CT</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -13252,26 +13260,26 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N103" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O103" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P103" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T103" s="2" t="n">
@@ -13292,19 +13300,19 @@
         </is>
       </c>
       <c r="Y103" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="Z103" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="AA103" t="n">
-        <v>6670</v>
+        <v>5520</v>
       </c>
       <c r="AB103" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AC103" s="2" t="n">
-        <v>45334</v>
+        <v>45329</v>
       </c>
       <c r="AD103" t="inlineStr">
         <is>
@@ -13320,7 +13328,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>5GJQT9CT</t>
+          <t>26IGMCGK</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -13369,16 +13377,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N104" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="O104" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P104" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
@@ -13388,7 +13396,7 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T104" s="2" t="n">
@@ -13409,19 +13417,19 @@
         </is>
       </c>
       <c r="Y104" t="n">
-        <v>5520</v>
+        <v>8280</v>
       </c>
       <c r="Z104" t="n">
-        <v>5520</v>
+        <v>8280</v>
       </c>
       <c r="AA104" t="n">
-        <v>5520</v>
+        <v>8280</v>
       </c>
       <c r="AB104" t="n">
         <v>0</v>
       </c>
       <c r="AC104" s="2" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="AD104" t="inlineStr">
         <is>
@@ -13437,7 +13445,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>26IGMCGK</t>
+          <t>5TSU6SSX</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -13486,26 +13494,26 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N105" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O105" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P105" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T105" s="2" t="n">
@@ -13526,19 +13534,19 @@
         </is>
       </c>
       <c r="Y105" t="n">
-        <v>8280</v>
+        <v>6900</v>
       </c>
       <c r="Z105" t="n">
-        <v>8280</v>
+        <v>6900</v>
       </c>
       <c r="AA105" t="n">
-        <v>8280</v>
+        <v>6670</v>
       </c>
       <c r="AB105" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AC105" s="2" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="AD105" t="inlineStr">
         <is>
@@ -13554,7 +13562,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>26IGMCGK</t>
+          <t>5TSU6SSX</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -13603,26 +13611,26 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N106" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O106" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P106" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T106" s="2" t="n">
@@ -13643,19 +13651,19 @@
         </is>
       </c>
       <c r="Y106" t="n">
-        <v>8280</v>
+        <v>6900</v>
       </c>
       <c r="Z106" t="n">
-        <v>8280</v>
+        <v>6900</v>
       </c>
       <c r="AA106" t="n">
-        <v>8280</v>
+        <v>6670</v>
       </c>
       <c r="AB106" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AC106" s="2" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="AD106" t="inlineStr">
         <is>
@@ -13788,7 +13796,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>5GJQT9CT</t>
+          <t>26IGMCGK</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -13837,16 +13845,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N108" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="O108" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P108" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
@@ -13856,7 +13864,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T108" s="2" t="n">
@@ -13877,19 +13885,19 @@
         </is>
       </c>
       <c r="Y108" t="n">
-        <v>5520</v>
+        <v>8280</v>
       </c>
       <c r="Z108" t="n">
-        <v>5520</v>
+        <v>8280</v>
       </c>
       <c r="AA108" t="n">
-        <v>5520</v>
+        <v>8280</v>
       </c>
       <c r="AB108" t="n">
         <v>0</v>
       </c>
       <c r="AC108" s="2" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="AD108" t="inlineStr">
         <is>
@@ -13905,7 +13913,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>5TSU6SSX</t>
+          <t>26IGMCGK</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -13954,26 +13962,26 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N109" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O109" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P109" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T109" s="2" t="n">
@@ -13994,19 +14002,19 @@
         </is>
       </c>
       <c r="Y109" t="n">
-        <v>6900</v>
+        <v>8280</v>
       </c>
       <c r="Z109" t="n">
-        <v>6900</v>
+        <v>8280</v>
       </c>
       <c r="AA109" t="n">
-        <v>6670</v>
+        <v>8280</v>
       </c>
       <c r="AB109" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AC109" s="2" t="n">
-        <v>45334</v>
+        <v>45331</v>
       </c>
       <c r="AD109" t="inlineStr">
         <is>
@@ -14022,7 +14030,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>26IGMCGK</t>
+          <t>5TSU6SSX</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -14071,26 +14079,26 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N110" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O110" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P110" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T110" s="2" t="n">
@@ -14111,19 +14119,19 @@
         </is>
       </c>
       <c r="Y110" t="n">
-        <v>8280</v>
+        <v>6900</v>
       </c>
       <c r="Z110" t="n">
-        <v>8280</v>
+        <v>6900</v>
       </c>
       <c r="AA110" t="n">
-        <v>8280</v>
+        <v>6670</v>
       </c>
       <c r="AB110" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AC110" s="2" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="AD110" t="inlineStr">
         <is>
@@ -14139,7 +14147,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>5TSU6SSX</t>
+          <t>5GJQT9CT</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -14188,26 +14196,26 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N111" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O111" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P111" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T111" s="2" t="n">
@@ -14228,19 +14236,19 @@
         </is>
       </c>
       <c r="Y111" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="Z111" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="AA111" t="n">
-        <v>6670</v>
+        <v>5520</v>
       </c>
       <c r="AB111" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AC111" s="2" t="n">
-        <v>45334</v>
+        <v>45329</v>
       </c>
       <c r="AD111" t="inlineStr">
         <is>
@@ -14251,825 +14259,6 @@
       <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="n">
         <v>110</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>8ZFZ9LFK</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z690 AERO G DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ WiFi 6/ Intel 2.5 GbE LAN/ Motherboard)</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>30</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0</v>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>LAX9</t>
-        </is>
-      </c>
-      <c r="T112" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="U112" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="V112" t="n">
-        <v>1</v>
-      </c>
-      <c r="W112" t="n">
-        <v>230</v>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y112" t="n">
-        <v>6900</v>
-      </c>
-      <c r="Z112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC112" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="AD112" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE112" t="inlineStr"/>
-      <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>8VQH2DPG</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z690 AERO G DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ WiFi 6/ Intel 2.5 GbE LAN/ Motherboard)</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>60</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0</v>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>SBD1</t>
-        </is>
-      </c>
-      <c r="T113" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="U113" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="V113" t="n">
-        <v>1</v>
-      </c>
-      <c r="W113" t="n">
-        <v>230</v>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y113" t="n">
-        <v>13800</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC113" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="AD113" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE113" t="inlineStr"/>
-      <c r="AF113" t="inlineStr"/>
-      <c r="AG113" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>3GCRTZZA</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z690 AERO G DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ WiFi 6/ Intel 2.5 GbE LAN/ Motherboard)</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>78</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0</v>
-      </c>
-      <c r="P114" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0</v>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>GYR3</t>
-        </is>
-      </c>
-      <c r="T114" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="U114" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="V114" t="n">
-        <v>1</v>
-      </c>
-      <c r="W114" t="n">
-        <v>230</v>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y114" t="n">
-        <v>17940</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC114" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="AD114" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE114" t="inlineStr"/>
-      <c r="AF114" t="inlineStr"/>
-      <c r="AG114" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>3T29EG9V</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z690 AERO G DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ WiFi 6/ Intel 2.5 GbE LAN/ Motherboard)</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>30</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0</v>
-      </c>
-      <c r="P115" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0</v>
-      </c>
-      <c r="R115" t="n">
-        <v>0</v>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>LAX9</t>
-        </is>
-      </c>
-      <c r="T115" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U115" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V115" t="n">
-        <v>1</v>
-      </c>
-      <c r="W115" t="n">
-        <v>230</v>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y115" t="n">
-        <v>6900</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC115" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD115" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE115" t="inlineStr"/>
-      <c r="AF115" t="inlineStr"/>
-      <c r="AG115" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>63ZWXWMM</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z690 AERO G DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ WiFi 6/ Intel 2.5 GbE LAN/ Motherboard)</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>6</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0</v>
-      </c>
-      <c r="P116" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>0</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0</v>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>ONT8</t>
-        </is>
-      </c>
-      <c r="T116" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U116" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V116" t="n">
-        <v>1</v>
-      </c>
-      <c r="W116" t="n">
-        <v>230</v>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y116" t="n">
-        <v>1380</v>
-      </c>
-      <c r="Z116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC116" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD116" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE116" t="inlineStr"/>
-      <c r="AF116" t="inlineStr"/>
-      <c r="AG116" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>6QTLGSTQ</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z690 AERO G DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ WiFi 6/ Intel 2.5 GbE LAN/ Motherboard)</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>6</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0</v>
-      </c>
-      <c r="P117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0</v>
-      </c>
-      <c r="R117" t="n">
-        <v>0</v>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>GYR3</t>
-        </is>
-      </c>
-      <c r="T117" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U117" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V117" t="n">
-        <v>1</v>
-      </c>
-      <c r="W117" t="n">
-        <v>230</v>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y117" t="n">
-        <v>1380</v>
-      </c>
-      <c r="Z117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC117" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD117" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE117" t="inlineStr"/>
-      <c r="AF117" t="inlineStr"/>
-      <c r="AG117" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>3SFP4VCP</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z690 AERO G DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ WiFi 6/ Intel 2.5 GbE LAN/ Motherboard)</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>36</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0</v>
-      </c>
-      <c r="P118" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0</v>
-      </c>
-      <c r="R118" t="n">
-        <v>0</v>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>SBD1</t>
-        </is>
-      </c>
-      <c r="T118" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U118" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V118" t="n">
-        <v>1</v>
-      </c>
-      <c r="W118" t="n">
-        <v>230</v>
-      </c>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y118" t="n">
-        <v>8280</v>
-      </c>
-      <c r="Z118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC118" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD118" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE118" t="inlineStr"/>
-      <c r="AF118" t="inlineStr"/>
-      <c r="AG118" t="n">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -15083,7 +14272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15226,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -15237,7 +14426,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -15248,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -15259,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -15270,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -15281,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -15710,7 +14899,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -15721,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -15787,7 +14976,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -15798,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -15820,7 +15009,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -15952,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -15963,7 +15152,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -16073,7 +15262,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90">
@@ -16084,7 +15273,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91">
@@ -16271,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -16293,7 +15482,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -16304,7 +15493,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111">
@@ -16315,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
@@ -16326,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
@@ -16337,7 +15526,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -16370,7 +15559,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -16403,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
@@ -16447,7 +15636,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
@@ -16480,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127">
@@ -16502,7 +15691,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -16513,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130">
@@ -16535,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132">
@@ -16546,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
@@ -16568,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
@@ -16623,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140">
@@ -16634,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
@@ -16645,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142">
@@ -16656,7 +15845,7 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
@@ -16667,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144">
@@ -16700,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
@@ -16733,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
@@ -16744,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151">
@@ -16777,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154">
@@ -16788,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
@@ -16810,7 +15999,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157">
@@ -16821,7 +16010,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158">
@@ -16870,43 +16059,43 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45357</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C162" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45357</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45357</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B165" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -16914,54 +16103,54 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45364</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C166" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45364</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45364</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45364</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C169" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -16969,10 +16158,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -16980,7 +16169,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -16991,10 +16180,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B173" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -17002,10 +16191,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -17013,10 +16202,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -17024,10 +16213,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -17035,10 +16224,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B177" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -17046,10 +16235,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -17057,10 +16246,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -17068,10 +16257,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B180" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -17079,10 +16268,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -17090,10 +16279,10 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -17101,7 +16290,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -17112,10 +16301,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -17123,7 +16312,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -17134,10 +16323,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -17145,10 +16334,10 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -17156,7 +16345,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -17167,7 +16356,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -17178,7 +16367,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -17189,7 +16378,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -17200,7 +16389,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -17211,10 +16400,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -17222,10 +16411,10 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -17233,7 +16422,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -17244,7 +16433,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -17255,7 +16444,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -17266,7 +16455,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -17277,7 +16466,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -17288,7 +16477,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -17299,10 +16488,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -17310,7 +16499,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -17321,7 +16510,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -17332,7 +16521,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -17343,78 +16532,12 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45613.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>45620.99999999999</v>
-      </c>
-      <c r="B206" t="n">
-        <v>0</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>45627.99999999999</v>
-      </c>
-      <c r="B207" t="n">
-        <v>0</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>45634.99999999999</v>
-      </c>
-      <c r="B208" t="n">
-        <v>0</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
-        <v>45641.99999999999</v>
-      </c>
-      <c r="B209" t="n">
-        <v>0</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
-        <v>45648.99999999999</v>
-      </c>
-      <c r="B210" t="n">
-        <v>0</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
-        <v>45655.99999999999</v>
-      </c>
-      <c r="B211" t="n">
-        <v>0</v>
-      </c>
-      <c r="C211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17461,10 +16584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2076</v>
+        <v>1830</v>
       </c>
       <c r="B2" t="n">
-        <v>17.74358974358974</v>
+        <v>16.63636363636364</v>
       </c>
       <c r="C2" t="n">
         <v>90</v>
@@ -17501,7 +16624,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24.07780725022104</v>
+        <v>20.34595496246872</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B09L9DY4L1_sales_po_comparison.xlsx
+++ b/po forecast comparison/B09L9DY4L1_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,6 +1203,14 @@
       </c>
       <c r="B95" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14272,7 +14280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C205"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15702,7 +15710,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
@@ -15713,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131">
@@ -15724,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
@@ -15735,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133">
@@ -15746,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
@@ -15790,7 +15798,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138">
@@ -15812,7 +15820,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
@@ -15823,7 +15831,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141">
@@ -15834,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
@@ -15856,7 +15864,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144">
@@ -15878,7 +15886,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146">
@@ -15889,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147">
@@ -15900,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148">
@@ -15922,7 +15930,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150">
@@ -15933,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151">
@@ -15944,7 +15952,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152">
@@ -16538,6 +16546,17 @@
         <v>1</v>
       </c>
       <c r="C205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B09L9DY4L1_sales_po_comparison.xlsx
+++ b/po forecast comparison/B09L9DY4L1_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,6 +1210,14 @@
         <v>45669.99999999999</v>
       </c>
       <c r="B96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14280,7 +14288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15941,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151">
@@ -15974,7 +15982,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
@@ -15996,7 +16004,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156">
@@ -16007,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157">
@@ -16557,6 +16565,17 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
         <v>0</v>
       </c>
     </row>
